--- a/BarraPCA/optimize_target.xlsx
+++ b/BarraPCA/optimize_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F23A9-079A-4F2C-84D7-9DE898A4280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BB1B32-0445-4470-902B-DE65BA55A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="47">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,22 @@
   </si>
   <si>
     <t>CSI300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRtn5D(0.0,0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APM(zscore)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APM(reverse)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1828,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -1859,7 +1875,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
@@ -1906,7 +1922,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
@@ -1953,7 +1969,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -2000,7 +2016,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -2047,7 +2063,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
@@ -2094,7 +2110,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
@@ -2141,7 +2157,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>28</v>
@@ -2188,7 +2204,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>20</v>
@@ -2235,7 +2251,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>28</v>
@@ -2282,7 +2298,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>20</v>
@@ -2329,7 +2345,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -2376,7 +2392,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>20</v>
@@ -2423,7 +2439,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>28</v>
@@ -2470,7 +2486,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>20</v>
@@ -2517,7 +2533,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>28</v>
@@ -2564,7 +2580,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
@@ -2611,7 +2627,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>28</v>
@@ -2658,7 +2674,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
@@ -2705,7 +2721,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
@@ -2752,7 +2768,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
@@ -2799,7 +2815,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>28</v>
@@ -2846,7 +2862,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>20</v>
@@ -2893,7 +2909,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
@@ -2935,6 +2951,4518 @@
         <v>26</v>
       </c>
       <c r="O49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O145" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target.xlsx
+++ b/BarraPCA/optimize_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE329C5-6CE2-4ABB-8996-01F708A17690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029F378-7378-4D13-A81D-4C017F8AF481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4044" yWindow="3588" windowWidth="12672" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7215" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="54">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,14 @@
   <si>
     <t>0.5</t>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -274,10 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -348,27 +358,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O481" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" dataCellStyle="常规">
-  <autoFilter ref="A1:O481" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}">
-    <filterColumn colId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O489" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="常规">
+  <autoFilter ref="A1:O489" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="FRtn5D(0.0,3.0)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CSI500"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="barra3"/>
-        <filter val="pca10"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="0.2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -376,21 +370,21 @@
     <sortCondition ref="I1:I481"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="16" dataCellStyle="常规"/>
-    <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="15" dataCellStyle="常规"/>
-    <tableColumn id="5" xr3:uid="{D2E9FE7A-7688-4F5B-8571-57FA7F950FAC}" name="mkt_type" dataDxfId="14" dataCellStyle="常规"/>
-    <tableColumn id="7" xr3:uid="{21D2BC5B-1724-4F5A-B035-96075B1C2F09}" name="beta_kind" dataDxfId="13" dataCellStyle="常规"/>
-    <tableColumn id="15" xr3:uid="{F7C69614-6013-4F27-B374-3234DC1FBECE}" name="beta_suffix" dataDxfId="12" dataCellStyle="常规"/>
-    <tableColumn id="8" xr3:uid="{F2F7816F-F2E3-423F-878B-C3AAC4FA1D59}" name="beta_args" dataDxfId="11" dataCellStyle="常规"/>
-    <tableColumn id="2" xr3:uid="{ADC22F73-F264-4A15-91B8-8277EEDB39C1}" name="expoH" dataDxfId="10" dataCellStyle="常规"/>
-    <tableColumn id="3" xr3:uid="{31851A3A-F877-49EE-AFF8-6A2B1CEA161C}" name="expoL" dataDxfId="9" dataCellStyle="常规"/>
-    <tableColumn id="4" xr3:uid="{D159B152-EF17-4A53-A2B7-966C2E98AF96}" name="K" dataDxfId="8" dataCellStyle="常规"/>
-    <tableColumn id="9" xr3:uid="{301040EA-8B39-49A6-93EE-2BDCD97E3D9B}" name="D" dataDxfId="7" dataCellStyle="常规"/>
-    <tableColumn id="10" xr3:uid="{6382DB46-0A90-49E0-B08D-FEC8E75AB104}" name="N" dataDxfId="6" dataCellStyle="常规"/>
-    <tableColumn id="11" xr3:uid="{DF0EDCA0-9516-45FB-BFB6-9DFB8EC0D545}" name="wei_tole" dataDxfId="5" dataCellStyle="常规"/>
-    <tableColumn id="12" xr3:uid="{60A4E7F6-72FF-4BCA-9D8F-856FA2A5D290}" name="begin_date" dataDxfId="4" dataCellStyle="常规"/>
-    <tableColumn id="13" xr3:uid="{62EA22B9-5B83-416C-B38E-2A157668E54E}" name="end_date" dataDxfId="3" dataCellStyle="常规"/>
-    <tableColumn id="14" xr3:uid="{03F4B61D-EE69-4D7C-B63A-F7ACB07450A3}" name="opt_verbose" dataDxfId="2" dataCellStyle="常规"/>
+    <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="14" dataCellStyle="常规"/>
+    <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="13" dataCellStyle="常规"/>
+    <tableColumn id="5" xr3:uid="{D2E9FE7A-7688-4F5B-8571-57FA7F950FAC}" name="mkt_type" dataDxfId="12" dataCellStyle="常规"/>
+    <tableColumn id="7" xr3:uid="{21D2BC5B-1724-4F5A-B035-96075B1C2F09}" name="beta_kind" dataDxfId="11" dataCellStyle="常规"/>
+    <tableColumn id="15" xr3:uid="{F7C69614-6013-4F27-B374-3234DC1FBECE}" name="beta_suffix" dataDxfId="10" dataCellStyle="常规"/>
+    <tableColumn id="8" xr3:uid="{F2F7816F-F2E3-423F-878B-C3AAC4FA1D59}" name="beta_args" dataDxfId="9" dataCellStyle="常规"/>
+    <tableColumn id="2" xr3:uid="{ADC22F73-F264-4A15-91B8-8277EEDB39C1}" name="expoH" dataDxfId="8" dataCellStyle="常规"/>
+    <tableColumn id="3" xr3:uid="{31851A3A-F877-49EE-AFF8-6A2B1CEA161C}" name="expoL" dataDxfId="7" dataCellStyle="常规"/>
+    <tableColumn id="4" xr3:uid="{D159B152-EF17-4A53-A2B7-966C2E98AF96}" name="K" dataDxfId="6" dataCellStyle="常规"/>
+    <tableColumn id="9" xr3:uid="{301040EA-8B39-49A6-93EE-2BDCD97E3D9B}" name="D" dataDxfId="5" dataCellStyle="常规"/>
+    <tableColumn id="10" xr3:uid="{6382DB46-0A90-49E0-B08D-FEC8E75AB104}" name="N" dataDxfId="4" dataCellStyle="常规"/>
+    <tableColumn id="11" xr3:uid="{DF0EDCA0-9516-45FB-BFB6-9DFB8EC0D545}" name="wei_tole" dataDxfId="3" dataCellStyle="常规"/>
+    <tableColumn id="12" xr3:uid="{60A4E7F6-72FF-4BCA-9D8F-856FA2A5D290}" name="begin_date" dataDxfId="2" dataCellStyle="常规"/>
+    <tableColumn id="13" xr3:uid="{62EA22B9-5B83-416C-B38E-2A157668E54E}" name="end_date" dataDxfId="1" dataCellStyle="常规"/>
+    <tableColumn id="14" xr3:uid="{03F4B61D-EE69-4D7C-B63A-F7ACB07450A3}" name="opt_verbose" dataDxfId="0" dataCellStyle="常规"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O481"/>
+  <dimension ref="A1:O489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F484" sqref="F484"/>
+      <selection activeCell="D489" sqref="D489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -972,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1066,7 +1060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1160,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1207,7 +1201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1254,7 +1248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -23294,6 +23288,382 @@
         <v>24</v>
       </c>
       <c r="O481" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I482" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M482" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N482" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O482" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H483" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I483" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J483" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M483" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N483" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O483" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I484" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M484" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N484" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H485" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I485" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J485" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M485" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O485" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I486" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J486" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L486" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M486" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O486" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G487" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H487" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I487" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J487" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M487" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I488" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J488" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M488" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O488" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G489" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H489" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I489" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J489" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M489" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N489" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O489" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target.xlsx
+++ b/BarraPCA/optimize_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029F378-7378-4D13-A81D-4C017F8AF481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54327B7D-40A8-41E2-BDFB-ED9EB7E24C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3588" windowWidth="12672" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7935" uniqueCount="58">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,22 @@
     <t>1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FRtn6D(0.0,3.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRtn6D(0.0,0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -358,17 +374,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O489" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="常规">
-  <autoFilter ref="A1:O489" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O529" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="常规">
+  <autoFilter ref="A1:O529" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O481">
-    <sortCondition ref="I1:I481"/>
-  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="14" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="13" dataCellStyle="常规"/>
@@ -653,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O489"/>
+  <dimension ref="A1:O529"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D489" sqref="D489"/>
+      <selection activeCell="D542" sqref="D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,7 +697,7 @@
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -23291,9 +23304,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>14</v>
@@ -23338,9 +23351,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>14</v>
@@ -23385,9 +23398,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>14</v>
@@ -23432,9 +23445,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>14</v>
@@ -23479,9 +23492,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>14</v>
@@ -23526,9 +23539,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>14</v>
@@ -23573,9 +23586,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>14</v>
@@ -23620,9 +23633,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>14</v>
@@ -23664,6 +23677,1886 @@
         <v>24</v>
       </c>
       <c r="O489" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I490" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J490" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L490" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G491" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H491" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I491" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J491" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N491" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I492" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J492" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L492" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N492" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G493" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H493" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I493" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J493" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M493" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O493" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I494" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J494" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M494" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N494" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O494" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G495" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H495" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I495" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J495" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K495" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L495" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O495" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I496" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J496" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M496" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N496" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O496" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G497" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H497" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I497" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J497" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M497" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N497" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O497" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I498" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J498" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M498" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N498" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O498" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G499" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H499" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I499" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J499" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N499" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O499" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I500" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J500" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M500" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N500" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O500" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G501" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H501" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I501" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J501" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M501" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N501" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I502" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J502" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L502" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M502" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N502" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O502" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G503" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H503" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I503" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J503" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L503" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M503" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N503" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O503" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I504" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L504" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M504" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N504" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O504" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G505" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H505" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I505" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J505" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K505" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L505" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M505" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N505" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O505" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I506" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J506" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L506" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M506" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G507" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H507" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I507" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J507" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K507" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L507" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M507" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N507" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O507" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H508" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I508" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K508" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L508" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M508" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N508" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O508" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G509" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H509" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I509" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J509" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K509" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L509" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M509" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N509" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O509" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I510" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J510" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K510" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L510" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M510" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N510" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O510" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G511" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H511" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I511" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J511" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K511" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L511" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M511" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N511" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O511" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I512" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J512" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K512" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L512" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M512" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N512" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O512" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G513" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H513" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I513" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J513" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K513" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L513" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M513" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N513" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O513" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I514" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J514" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K514" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L514" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M514" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N514" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O514" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I515" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J515" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K515" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L515" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M515" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N515" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O515" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G516" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H516" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I516" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J516" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K516" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L516" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M516" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N516" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O516" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I517" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J517" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K517" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L517" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M517" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N517" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O517" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I518" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J518" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K518" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L518" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M518" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N518" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O518" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I519" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J519" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K519" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L519" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M519" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N519" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O519" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G520" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H520" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I520" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J520" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K520" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L520" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M520" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N520" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O520" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I521" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J521" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K521" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L521" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M521" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N521" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O521" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I522" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K522" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L522" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M522" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N522" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O522" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I523" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J523" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K523" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L523" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M523" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N523" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O523" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G524" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H524" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I524" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J524" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K524" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L524" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M524" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N524" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I525" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K525" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L525" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M525" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N525" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O525" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H526" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I526" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J526" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K526" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L526" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M526" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N526" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O526" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I527" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K527" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L527" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M527" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N527" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O527" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G528" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H528" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I528" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K528" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L528" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M528" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N528" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O528" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I529" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K529" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L529" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M529" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O529" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/BarraPCA/optimize_target.xlsx
+++ b/BarraPCA/optimize_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54327B7D-40A8-41E2-BDFB-ED9EB7E24C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFF085-1E3C-4FD5-9457-6232D1E871CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7935" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7935" uniqueCount="57">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,13 +371,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O529" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="常规">
-  <autoFilter ref="A1:O529" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O529" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="14" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="13" dataCellStyle="常规"/>
@@ -668,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O529"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D542" sqref="D542"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A514" sqref="A514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -744,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -791,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -838,7 +828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -885,7 +875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -932,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -979,7 +969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1026,7 +1016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1214,7 +1204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1261,7 +1251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1355,7 +1345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1402,7 +1392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1543,7 +1533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1637,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1684,7 +1674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +1721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,7 +1768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1872,7 +1862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1966,7 +1956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -2013,7 +2003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2060,7 +2050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2154,7 +2144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2201,7 +2191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2248,7 +2238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,7 +2285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2342,7 +2332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2389,7 +2379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2436,7 +2426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -2530,7 +2520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2577,7 +2567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -2624,7 +2614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2671,7 +2661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,7 +2708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -2765,7 +2755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2812,7 +2802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -2859,7 +2849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +2896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>32</v>
       </c>
@@ -2953,7 +2943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -3000,7 +2990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -3047,7 +3037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,7 +3084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -3188,7 +3178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,7 +3225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -3282,7 +3272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -3329,7 +3319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -3376,7 +3366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>32</v>
       </c>
@@ -3423,7 +3413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -3470,7 +3460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>32</v>
       </c>
@@ -3517,7 +3507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>32</v>
       </c>
@@ -3564,7 +3554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
@@ -3611,7 +3601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>32</v>
       </c>
@@ -3658,7 +3648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -3705,7 +3695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
@@ -3752,7 +3742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
@@ -3799,7 +3789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -3846,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -3893,7 +3883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -3940,7 +3930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
@@ -3987,7 +3977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
@@ -4034,7 +4024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
@@ -4081,7 +4071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
@@ -4128,7 +4118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>32</v>
       </c>
@@ -4175,7 +4165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
@@ -4222,7 +4212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>32</v>
       </c>
@@ -4269,7 +4259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -4316,7 +4306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
@@ -4363,7 +4353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
@@ -4410,7 +4400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
@@ -4457,7 +4447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>32</v>
       </c>
@@ -4504,7 +4494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>32</v>
       </c>
@@ -4551,7 +4541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -4598,7 +4588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>32</v>
       </c>
@@ -4645,7 +4635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
@@ -4692,7 +4682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>32</v>
       </c>
@@ -4786,7 +4776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
@@ -4833,7 +4823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>32</v>
       </c>
@@ -4880,7 +4870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>32</v>
       </c>
@@ -4927,7 +4917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>32</v>
       </c>
@@ -4974,7 +4964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>32</v>
       </c>
@@ -5021,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>32</v>
       </c>
@@ -5068,7 +5058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>32</v>
       </c>
@@ -5115,7 +5105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
@@ -5162,7 +5152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>32</v>
       </c>
@@ -5209,7 +5199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>32</v>
       </c>
@@ -5256,7 +5246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>32</v>
       </c>
@@ -5303,7 +5293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -5350,7 +5340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>32</v>
       </c>
@@ -5397,7 +5387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
@@ -5444,7 +5434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>30</v>
       </c>
@@ -5491,7 +5481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>30</v>
       </c>
@@ -5538,7 +5528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>30</v>
       </c>
@@ -5585,7 +5575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>30</v>
       </c>
@@ -5632,7 +5622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>30</v>
       </c>
@@ -5679,7 +5669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>30</v>
       </c>
@@ -5726,7 +5716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>30</v>
       </c>
@@ -5773,7 +5763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>30</v>
       </c>
@@ -5820,7 +5810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -5867,7 +5857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
@@ -5914,7 +5904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>32</v>
       </c>
@@ -5961,7 +5951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>32</v>
       </c>
@@ -6008,7 +5998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>32</v>
       </c>
@@ -6055,7 +6045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>32</v>
       </c>
@@ -6102,7 +6092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
@@ -6149,7 +6139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>32</v>
       </c>
@@ -6196,7 +6186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>32</v>
       </c>
@@ -6243,7 +6233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>32</v>
       </c>
@@ -6290,7 +6280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>32</v>
       </c>
@@ -6337,7 +6327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -6384,7 +6374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
@@ -6431,7 +6421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
@@ -6478,7 +6468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>32</v>
       </c>
@@ -6525,7 +6515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>32</v>
       </c>
@@ -6572,7 +6562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>32</v>
       </c>
@@ -6619,7 +6609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>32</v>
       </c>
@@ -6666,7 +6656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>32</v>
       </c>
@@ -6713,7 +6703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>32</v>
       </c>
@@ -6760,7 +6750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>32</v>
       </c>
@@ -6807,7 +6797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>32</v>
       </c>
@@ -6854,7 +6844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>32</v>
       </c>
@@ -6901,7 +6891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>32</v>
       </c>
@@ -6948,7 +6938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -6995,7 +6985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>30</v>
       </c>
@@ -7042,7 +7032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>30</v>
       </c>
@@ -7089,7 +7079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -7136,7 +7126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>30</v>
       </c>
@@ -7183,7 +7173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>30</v>
       </c>
@@ -7230,7 +7220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>30</v>
       </c>
@@ -7277,7 +7267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>30</v>
       </c>
@@ -7324,7 +7314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>32</v>
       </c>
@@ -7371,7 +7361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>32</v>
       </c>
@@ -7418,7 +7408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>32</v>
       </c>
@@ -7465,7 +7455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>32</v>
       </c>
@@ -7512,7 +7502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>32</v>
       </c>
@@ -7559,7 +7549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>32</v>
       </c>
@@ -7606,7 +7596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>32</v>
       </c>
@@ -7653,7 +7643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>32</v>
       </c>
@@ -7700,7 +7690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>32</v>
       </c>
@@ -7747,7 +7737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>32</v>
       </c>
@@ -7794,7 +7784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>32</v>
       </c>
@@ -7841,7 +7831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>32</v>
       </c>
@@ -7888,7 +7878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>32</v>
       </c>
@@ -7935,7 +7925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>32</v>
       </c>
@@ -7982,7 +7972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -8029,7 +8019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>32</v>
       </c>
@@ -8076,7 +8066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>32</v>
       </c>
@@ -8123,7 +8113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>32</v>
       </c>
@@ -8170,7 +8160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>32</v>
       </c>
@@ -8217,7 +8207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>32</v>
       </c>
@@ -8264,7 +8254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
@@ -8311,7 +8301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>32</v>
       </c>
@@ -8405,7 +8395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>32</v>
       </c>
@@ -8452,7 +8442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>32</v>
       </c>
@@ -8499,7 +8489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>32</v>
       </c>
@@ -8546,7 +8536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>30</v>
       </c>
@@ -8593,7 +8583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>32</v>
       </c>
@@ -8640,7 +8630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>32</v>
       </c>
@@ -8687,7 +8677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>32</v>
       </c>
@@ -8734,7 +8724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -8781,7 +8771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>32</v>
       </c>
@@ -8828,7 +8818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>32</v>
       </c>
@@ -8875,7 +8865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>32</v>
       </c>
@@ -8922,7 +8912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>32</v>
       </c>
@@ -8969,7 +8959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>32</v>
       </c>
@@ -9016,7 +9006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>32</v>
       </c>
@@ -9063,7 +9053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>32</v>
       </c>
@@ -9110,7 +9100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>32</v>
       </c>
@@ -9157,7 +9147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>32</v>
       </c>
@@ -9204,7 +9194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>32</v>
       </c>
@@ -9251,7 +9241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>32</v>
       </c>
@@ -9298,7 +9288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>30</v>
       </c>
@@ -9345,7 +9335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>32</v>
       </c>
@@ -9392,7 +9382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>32</v>
       </c>
@@ -9439,7 +9429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>32</v>
       </c>
@@ -9486,7 +9476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>32</v>
       </c>
@@ -9533,7 +9523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>32</v>
       </c>
@@ -9580,7 +9570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>32</v>
       </c>
@@ -9627,7 +9617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>32</v>
       </c>
@@ -9674,7 +9664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>32</v>
       </c>
@@ -9721,7 +9711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>32</v>
       </c>
@@ -9768,7 +9758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>32</v>
       </c>
@@ -9815,7 +9805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>32</v>
       </c>
@@ -9862,7 +9852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>32</v>
       </c>
@@ -9909,7 +9899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>32</v>
       </c>
@@ -9956,7 +9946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>32</v>
       </c>
@@ -10003,7 +9993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>32</v>
       </c>
@@ -10050,7 +10040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>32</v>
       </c>
@@ -10097,7 +10087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>32</v>
       </c>
@@ -10144,7 +10134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>32</v>
       </c>
@@ -10191,7 +10181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>32</v>
       </c>
@@ -10238,7 +10228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>32</v>
       </c>
@@ -10285,7 +10275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>32</v>
       </c>
@@ -10332,7 +10322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>32</v>
       </c>
@@ -10379,7 +10369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>32</v>
       </c>
@@ -10426,7 +10416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>32</v>
       </c>
@@ -10473,7 +10463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>32</v>
       </c>
@@ -10520,7 +10510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>32</v>
       </c>
@@ -10567,7 +10557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>32</v>
       </c>
@@ -10614,7 +10604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>32</v>
       </c>
@@ -10661,7 +10651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>32</v>
       </c>
@@ -10708,7 +10698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>32</v>
       </c>
@@ -10755,7 +10745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>32</v>
       </c>
@@ -10802,7 +10792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>32</v>
       </c>
@@ -10849,7 +10839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>32</v>
       </c>
@@ -10896,7 +10886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>32</v>
       </c>
@@ -10943,7 +10933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>32</v>
       </c>
@@ -10990,7 +10980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>32</v>
       </c>
@@ -11037,7 +11027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>32</v>
       </c>
@@ -11084,7 +11074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>32</v>
       </c>
@@ -11131,7 +11121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>32</v>
       </c>
@@ -11178,7 +11168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>32</v>
       </c>
@@ -11225,7 +11215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>32</v>
       </c>
@@ -11272,7 +11262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>32</v>
       </c>
@@ -11319,7 +11309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>32</v>
       </c>
@@ -11366,7 +11356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>32</v>
       </c>
@@ -11413,7 +11403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>32</v>
       </c>
@@ -11460,7 +11450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>32</v>
       </c>
@@ -11507,7 +11497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>32</v>
       </c>
@@ -11554,7 +11544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>32</v>
       </c>
@@ -11601,7 +11591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>32</v>
       </c>
@@ -11648,7 +11638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>32</v>
       </c>
@@ -11695,7 +11685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>32</v>
       </c>
@@ -11742,7 +11732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>32</v>
       </c>
@@ -11789,7 +11779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>32</v>
       </c>
@@ -11836,7 +11826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>32</v>
       </c>
@@ -11883,7 +11873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>32</v>
       </c>
@@ -11930,7 +11920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>32</v>
       </c>
@@ -11977,7 +11967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>32</v>
       </c>
@@ -12024,7 +12014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>32</v>
       </c>
@@ -12071,7 +12061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
@@ -12118,7 +12108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
@@ -12165,7 +12155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>32</v>
       </c>
@@ -12212,7 +12202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>32</v>
       </c>
@@ -12259,7 +12249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>32</v>
       </c>
@@ -12306,7 +12296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>32</v>
       </c>
@@ -12353,7 +12343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>32</v>
       </c>
@@ -12400,7 +12390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>32</v>
       </c>
@@ -12447,7 +12437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>32</v>
       </c>
@@ -12494,7 +12484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>32</v>
       </c>
@@ -12541,7 +12531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>32</v>
       </c>
@@ -12588,7 +12578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>32</v>
       </c>
@@ -12635,7 +12625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>32</v>
       </c>
@@ -12682,7 +12672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>32</v>
       </c>
@@ -12729,7 +12719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>32</v>
       </c>
@@ -12776,7 +12766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>32</v>
       </c>
@@ -12823,7 +12813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>32</v>
       </c>
@@ -12870,7 +12860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>32</v>
       </c>
@@ -12917,7 +12907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>32</v>
       </c>
@@ -12964,7 +12954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>32</v>
       </c>
@@ -13011,7 +13001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>32</v>
       </c>
@@ -13058,7 +13048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>32</v>
       </c>
@@ -13105,7 +13095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>32</v>
       </c>
@@ -13152,7 +13142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>32</v>
       </c>
@@ -13199,7 +13189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>32</v>
       </c>
@@ -13246,7 +13236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>32</v>
       </c>
@@ -13293,7 +13283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>32</v>
       </c>
@@ -13340,7 +13330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>32</v>
       </c>
@@ -13387,7 +13377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>32</v>
       </c>
@@ -13434,7 +13424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>32</v>
       </c>
@@ -13481,7 +13471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>32</v>
       </c>
@@ -13528,7 +13518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>32</v>
       </c>
@@ -13575,7 +13565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>32</v>
       </c>
@@ -13622,7 +13612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>32</v>
       </c>
@@ -13669,7 +13659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>32</v>
       </c>
@@ -13716,7 +13706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>32</v>
       </c>
@@ -13763,7 +13753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>32</v>
       </c>
@@ -13810,7 +13800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>32</v>
       </c>
@@ -13857,7 +13847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>32</v>
       </c>
@@ -13904,7 +13894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>32</v>
       </c>
@@ -13951,7 +13941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>32</v>
       </c>
@@ -13998,7 +13988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>32</v>
       </c>
@@ -14045,7 +14035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>32</v>
       </c>
@@ -14092,7 +14082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>32</v>
       </c>
@@ -14139,7 +14129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>32</v>
       </c>
@@ -14186,7 +14176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>32</v>
       </c>
@@ -14233,7 +14223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>32</v>
       </c>
@@ -14280,7 +14270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>32</v>
       </c>
@@ -14327,7 +14317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>32</v>
       </c>
@@ -14374,7 +14364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>32</v>
       </c>
@@ -14421,7 +14411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>32</v>
       </c>
@@ -14468,7 +14458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>32</v>
       </c>
@@ -14515,7 +14505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>32</v>
       </c>
@@ -14562,7 +14552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>32</v>
       </c>
@@ -14609,7 +14599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>32</v>
       </c>
@@ -14656,7 +14646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>32</v>
       </c>
@@ -14703,7 +14693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>32</v>
       </c>
@@ -14750,7 +14740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>32</v>
       </c>
@@ -14797,7 +14787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>32</v>
       </c>
@@ -14844,7 +14834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>32</v>
       </c>
@@ -14891,7 +14881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>32</v>
       </c>
@@ -14938,7 +14928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>32</v>
       </c>
@@ -14985,7 +14975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>32</v>
       </c>
@@ -15032,7 +15022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>32</v>
       </c>
@@ -15079,7 +15069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>32</v>
       </c>
@@ -15126,7 +15116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>32</v>
       </c>
@@ -15173,7 +15163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>32</v>
       </c>
@@ -15220,7 +15210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>32</v>
       </c>
@@ -15267,7 +15257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>32</v>
       </c>
@@ -15314,7 +15304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>32</v>
       </c>
@@ -15361,7 +15351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>32</v>
       </c>
@@ -15408,7 +15398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>32</v>
       </c>
@@ -15455,7 +15445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>32</v>
       </c>
@@ -15502,7 +15492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>32</v>
       </c>
@@ -15549,7 +15539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>32</v>
       </c>
@@ -15596,7 +15586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>32</v>
       </c>
@@ -15643,7 +15633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>32</v>
       </c>
@@ -15690,7 +15680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>32</v>
       </c>
@@ -15737,7 +15727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>32</v>
       </c>
@@ -15784,7 +15774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>30</v>
       </c>
@@ -15831,7 +15821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>30</v>
       </c>
@@ -15878,7 +15868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>30</v>
       </c>
@@ -15925,7 +15915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>30</v>
       </c>
@@ -15972,7 +15962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>30</v>
       </c>
@@ -16019,7 +16009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>30</v>
       </c>
@@ -16066,7 +16056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>30</v>
       </c>
@@ -16113,7 +16103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>30</v>
       </c>
@@ -16160,7 +16150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>30</v>
       </c>
@@ -16207,7 +16197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>30</v>
       </c>
@@ -16254,7 +16244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>30</v>
       </c>
@@ -16301,7 +16291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>30</v>
       </c>
@@ -16348,7 +16338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>30</v>
       </c>
@@ -16395,7 +16385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>30</v>
       </c>
@@ -16442,7 +16432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>30</v>
       </c>
@@ -16489,7 +16479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>30</v>
       </c>
@@ -16536,7 +16526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>32</v>
       </c>
@@ -16583,7 +16573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>32</v>
       </c>
@@ -16630,7 +16620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>32</v>
       </c>
@@ -16677,7 +16667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>32</v>
       </c>
@@ -16724,7 +16714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>32</v>
       </c>
@@ -16771,7 +16761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>32</v>
       </c>
@@ -16818,7 +16808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>30</v>
       </c>
@@ -16865,7 +16855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>32</v>
       </c>
@@ -16912,7 +16902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>32</v>
       </c>
@@ -16959,7 +16949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>32</v>
       </c>
@@ -17006,7 +16996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>32</v>
       </c>
@@ -17053,7 +17043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>32</v>
       </c>
@@ -17100,7 +17090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>32</v>
       </c>
@@ -17147,7 +17137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>32</v>
       </c>
@@ -17194,7 +17184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>32</v>
       </c>
@@ -17241,7 +17231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>32</v>
       </c>
@@ -17288,7 +17278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>32</v>
       </c>
@@ -17335,7 +17325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>32</v>
       </c>
@@ -17382,7 +17372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>32</v>
       </c>
@@ -17429,7 +17419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>32</v>
       </c>
@@ -17476,7 +17466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>32</v>
       </c>
@@ -17523,7 +17513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>32</v>
       </c>
@@ -17570,7 +17560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>30</v>
       </c>
@@ -17617,7 +17607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>32</v>
       </c>
@@ -17664,7 +17654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>32</v>
       </c>
@@ -17711,7 +17701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>32</v>
       </c>
@@ -17758,7 +17748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>32</v>
       </c>
@@ -17805,7 +17795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>32</v>
       </c>
@@ -17852,7 +17842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>32</v>
       </c>
@@ -17899,7 +17889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>32</v>
       </c>
@@ -17946,7 +17936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>32</v>
       </c>
@@ -17993,7 +17983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>32</v>
       </c>
@@ -18040,7 +18030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>32</v>
       </c>
@@ -18087,7 +18077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>32</v>
       </c>
@@ -18134,7 +18124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>32</v>
       </c>
@@ -18181,7 +18171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>32</v>
       </c>
@@ -18228,7 +18218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>32</v>
       </c>
@@ -18275,7 +18265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>32</v>
       </c>
@@ -18322,7 +18312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>32</v>
       </c>
@@ -18369,7 +18359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>32</v>
       </c>
@@ -18416,7 +18406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>32</v>
       </c>
@@ -18463,7 +18453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>32</v>
       </c>
@@ -18510,7 +18500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>32</v>
       </c>
@@ -18557,7 +18547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>32</v>
       </c>
@@ -18604,7 +18594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>32</v>
       </c>
@@ -18651,7 +18641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>32</v>
       </c>
@@ -18698,7 +18688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>32</v>
       </c>
@@ -18745,7 +18735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>32</v>
       </c>
@@ -18792,7 +18782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>32</v>
       </c>
@@ -18839,7 +18829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>32</v>
       </c>
@@ -18886,7 +18876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>32</v>
       </c>
@@ -18933,7 +18923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>32</v>
       </c>
@@ -18980,7 +18970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>32</v>
       </c>
@@ -19027,7 +19017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>32</v>
       </c>
@@ -19074,7 +19064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>32</v>
       </c>
@@ -19121,7 +19111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>32</v>
       </c>
@@ -19168,7 +19158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>32</v>
       </c>
@@ -19215,7 +19205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>32</v>
       </c>
@@ -19262,7 +19252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>32</v>
       </c>
@@ -19309,7 +19299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>32</v>
       </c>
@@ -19356,7 +19346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>32</v>
       </c>
@@ -19403,7 +19393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>32</v>
       </c>
@@ -19450,7 +19440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>32</v>
       </c>
@@ -19497,7 +19487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>32</v>
       </c>
@@ -19544,7 +19534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>32</v>
       </c>
@@ -19591,7 +19581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>32</v>
       </c>
@@ -19638,7 +19628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>32</v>
       </c>
@@ -19685,7 +19675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>32</v>
       </c>
@@ -19732,7 +19722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>32</v>
       </c>
@@ -19779,7 +19769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>32</v>
       </c>
@@ -19826,7 +19816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>32</v>
       </c>
@@ -19873,7 +19863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>32</v>
       </c>
@@ -19920,7 +19910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>32</v>
       </c>
@@ -19967,7 +19957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>32</v>
       </c>
@@ -20014,7 +20004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>32</v>
       </c>
@@ -20061,7 +20051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>32</v>
       </c>
@@ -20108,7 +20098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>32</v>
       </c>
@@ -20155,7 +20145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>32</v>
       </c>
@@ -20202,7 +20192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>32</v>
       </c>
@@ -20249,7 +20239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>32</v>
       </c>
@@ -20296,7 +20286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>32</v>
       </c>
@@ -20343,7 +20333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>32</v>
       </c>
@@ -20390,7 +20380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>32</v>
       </c>
@@ -20437,7 +20427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>32</v>
       </c>
@@ -20484,7 +20474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>32</v>
       </c>
@@ -20531,7 +20521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>32</v>
       </c>
@@ -20578,7 +20568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>32</v>
       </c>
@@ -20625,7 +20615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>32</v>
       </c>
@@ -20672,7 +20662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>32</v>
       </c>
@@ -20719,7 +20709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>32</v>
       </c>
@@ -20766,7 +20756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>32</v>
       </c>
@@ -20813,7 +20803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>32</v>
       </c>
@@ -20860,7 +20850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>32</v>
       </c>
@@ -20907,7 +20897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>32</v>
       </c>
@@ -20954,7 +20944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>32</v>
       </c>
@@ -21001,7 +20991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>32</v>
       </c>
@@ -21048,7 +21038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>32</v>
       </c>
@@ -21095,7 +21085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>32</v>
       </c>
@@ -21142,7 +21132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>32</v>
       </c>
@@ -21189,7 +21179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>32</v>
       </c>
@@ -21236,7 +21226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>32</v>
       </c>
@@ -21283,7 +21273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>32</v>
       </c>
@@ -21330,7 +21320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>32</v>
       </c>
@@ -21377,7 +21367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>32</v>
       </c>
@@ -21424,7 +21414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>32</v>
       </c>
@@ -21471,7 +21461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>32</v>
       </c>
@@ -21518,7 +21508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>32</v>
       </c>
@@ -21565,7 +21555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>32</v>
       </c>
@@ -21612,7 +21602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>32</v>
       </c>
@@ -21659,7 +21649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>32</v>
       </c>
@@ -21706,7 +21696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>32</v>
       </c>
@@ -21753,7 +21743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>32</v>
       </c>
@@ -21800,7 +21790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>32</v>
       </c>
@@ -21847,7 +21837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>32</v>
       </c>
@@ -21894,7 +21884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>32</v>
       </c>
@@ -21941,7 +21931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>32</v>
       </c>
@@ -21988,7 +21978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>32</v>
       </c>
@@ -22035,7 +22025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>32</v>
       </c>
@@ -22082,7 +22072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>32</v>
       </c>
@@ -22129,7 +22119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>32</v>
       </c>
@@ -22176,7 +22166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>32</v>
       </c>
@@ -22223,7 +22213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>32</v>
       </c>
@@ -22270,7 +22260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>32</v>
       </c>
@@ -22317,7 +22307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>32</v>
       </c>
@@ -22364,7 +22354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>32</v>
       </c>
@@ -22411,7 +22401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>32</v>
       </c>
@@ -22458,7 +22448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>32</v>
       </c>
@@ -22505,7 +22495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>32</v>
       </c>
@@ -22552,7 +22542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>32</v>
       </c>
@@ -22599,7 +22589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>32</v>
       </c>
@@ -22646,7 +22636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>32</v>
       </c>
@@ -22693,7 +22683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>32</v>
       </c>
@@ -22740,7 +22730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>32</v>
       </c>
@@ -22787,7 +22777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>32</v>
       </c>
@@ -22834,7 +22824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>32</v>
       </c>
@@ -22881,7 +22871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>32</v>
       </c>
@@ -22928,7 +22918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>32</v>
       </c>
@@ -22975,7 +22965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>32</v>
       </c>
@@ -23022,7 +23012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>32</v>
       </c>
@@ -23069,7 +23059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>32</v>
       </c>
@@ -23116,7 +23106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>32</v>
       </c>
@@ -23163,7 +23153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>32</v>
       </c>
@@ -23210,7 +23200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>32</v>
       </c>
@@ -23257,7 +23247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>32</v>
       </c>
@@ -23304,7 +23294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>30</v>
       </c>
@@ -23330,7 +23320,7 @@
         <v>19</v>
       </c>
       <c r="I482" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J482" s="3" t="s">
         <v>20</v>
@@ -23351,7 +23341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>30</v>
       </c>
@@ -23377,7 +23367,7 @@
         <v>48</v>
       </c>
       <c r="I483" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J483" s="3" t="s">
         <v>20</v>
@@ -23398,7 +23388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>30</v>
       </c>
@@ -23424,7 +23414,7 @@
         <v>27</v>
       </c>
       <c r="I484" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J484" s="3" t="s">
         <v>20</v>
@@ -23445,7 +23435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>30</v>
       </c>
@@ -23471,7 +23461,7 @@
         <v>46</v>
       </c>
       <c r="I485" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J485" s="3" t="s">
         <v>20</v>
@@ -23492,7 +23482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>30</v>
       </c>
@@ -23518,7 +23508,7 @@
         <v>19</v>
       </c>
       <c r="I486" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J486" s="3" t="s">
         <v>20</v>
@@ -23539,7 +23529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>30</v>
       </c>
@@ -23565,7 +23555,7 @@
         <v>48</v>
       </c>
       <c r="I487" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J487" s="3" t="s">
         <v>20</v>
@@ -23586,7 +23576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>30</v>
       </c>
@@ -23612,7 +23602,7 @@
         <v>27</v>
       </c>
       <c r="I488" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J488" s="3" t="s">
         <v>20</v>
@@ -23633,7 +23623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>30</v>
       </c>
@@ -23659,7 +23649,7 @@
         <v>46</v>
       </c>
       <c r="I489" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J489" s="3" t="s">
         <v>20</v>
@@ -23680,12 +23670,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>13</v>
@@ -23706,7 +23696,7 @@
         <v>19</v>
       </c>
       <c r="I490" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J490" s="3" t="s">
         <v>20</v>
@@ -23727,12 +23717,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>13</v>
@@ -23753,7 +23743,7 @@
         <v>48</v>
       </c>
       <c r="I491" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J491" s="3" t="s">
         <v>20</v>
@@ -23774,12 +23764,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>13</v>
@@ -23800,7 +23790,7 @@
         <v>27</v>
       </c>
       <c r="I492" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J492" s="3" t="s">
         <v>20</v>
@@ -23821,12 +23811,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>13</v>
@@ -23847,7 +23837,7 @@
         <v>46</v>
       </c>
       <c r="I493" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J493" s="3" t="s">
         <v>20</v>
@@ -23868,12 +23858,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>13</v>
@@ -23894,7 +23884,7 @@
         <v>19</v>
       </c>
       <c r="I494" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J494" s="3" t="s">
         <v>20</v>
@@ -23915,12 +23905,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>13</v>
@@ -23941,7 +23931,7 @@
         <v>48</v>
       </c>
       <c r="I495" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J495" s="3" t="s">
         <v>20</v>
@@ -23962,12 +23952,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>13</v>
@@ -23988,7 +23978,7 @@
         <v>27</v>
       </c>
       <c r="I496" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J496" s="3" t="s">
         <v>20</v>
@@ -24009,12 +23999,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>13</v>
@@ -24035,7 +24025,7 @@
         <v>46</v>
       </c>
       <c r="I497" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J497" s="3" t="s">
         <v>20</v>
@@ -24056,12 +24046,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>13</v>
@@ -24082,7 +24072,7 @@
         <v>19</v>
       </c>
       <c r="I498" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J498" s="3" t="s">
         <v>20</v>
@@ -24103,12 +24093,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>13</v>
@@ -24129,7 +24119,7 @@
         <v>48</v>
       </c>
       <c r="I499" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J499" s="3" t="s">
         <v>20</v>
@@ -24150,12 +24140,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>13</v>
@@ -24176,7 +24166,7 @@
         <v>27</v>
       </c>
       <c r="I500" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J500" s="3" t="s">
         <v>20</v>
@@ -24197,12 +24187,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>13</v>
@@ -24223,7 +24213,7 @@
         <v>46</v>
       </c>
       <c r="I501" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J501" s="3" t="s">
         <v>20</v>
@@ -24244,12 +24234,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>13</v>
@@ -24270,7 +24260,7 @@
         <v>19</v>
       </c>
       <c r="I502" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J502" s="3" t="s">
         <v>20</v>
@@ -24291,12 +24281,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>13</v>
@@ -24317,7 +24307,7 @@
         <v>48</v>
       </c>
       <c r="I503" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J503" s="3" t="s">
         <v>20</v>
@@ -24338,12 +24328,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C504" s="3" t="s">
         <v>13</v>
@@ -24364,7 +24354,7 @@
         <v>27</v>
       </c>
       <c r="I504" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J504" s="3" t="s">
         <v>20</v>
@@ -24385,12 +24375,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>13</v>
@@ -24411,7 +24401,7 @@
         <v>46</v>
       </c>
       <c r="I505" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J505" s="3" t="s">
         <v>20</v>
@@ -24432,7 +24422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>30</v>
       </c>
@@ -24458,7 +24448,7 @@
         <v>19</v>
       </c>
       <c r="I506" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J506" s="3" t="s">
         <v>20</v>
@@ -24479,7 +24469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>30</v>
       </c>
@@ -24505,7 +24495,7 @@
         <v>48</v>
       </c>
       <c r="I507" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J507" s="3" t="s">
         <v>20</v>
@@ -24526,7 +24516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>30</v>
       </c>
@@ -24552,7 +24542,7 @@
         <v>27</v>
       </c>
       <c r="I508" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J508" s="3" t="s">
         <v>20</v>
@@ -24573,7 +24563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>30</v>
       </c>
@@ -24599,7 +24589,7 @@
         <v>46</v>
       </c>
       <c r="I509" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J509" s="3" t="s">
         <v>20</v>
@@ -24620,7 +24610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>30</v>
       </c>
@@ -24646,7 +24636,7 @@
         <v>19</v>
       </c>
       <c r="I510" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J510" s="3" t="s">
         <v>20</v>
@@ -24667,7 +24657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>30</v>
       </c>
@@ -24693,7 +24683,7 @@
         <v>48</v>
       </c>
       <c r="I511" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J511" s="3" t="s">
         <v>20</v>
@@ -24714,7 +24704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>30</v>
       </c>
@@ -24740,7 +24730,7 @@
         <v>27</v>
       </c>
       <c r="I512" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J512" s="3" t="s">
         <v>20</v>
@@ -24761,7 +24751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>30</v>
       </c>
@@ -24787,7 +24777,7 @@
         <v>46</v>
       </c>
       <c r="I513" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J513" s="3" t="s">
         <v>20</v>
@@ -24808,7 +24798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>30</v>
       </c>
@@ -24834,7 +24824,7 @@
         <v>19</v>
       </c>
       <c r="I514" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J514" s="3" t="s">
         <v>20</v>
@@ -24855,7 +24845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>30</v>
       </c>
@@ -24881,7 +24871,7 @@
         <v>27</v>
       </c>
       <c r="I515" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J515" s="3" t="s">
         <v>20</v>
@@ -24902,7 +24892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>30</v>
       </c>
@@ -24928,7 +24918,7 @@
         <v>46</v>
       </c>
       <c r="I516" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J516" s="3" t="s">
         <v>20</v>
@@ -24949,7 +24939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>30</v>
       </c>
@@ -24969,13 +24959,13 @@
         <v>16</v>
       </c>
       <c r="G517" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H517" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H517" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I517" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J517" s="3" t="s">
         <v>20</v>
@@ -24996,7 +24986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>30</v>
       </c>
@@ -25022,7 +25012,7 @@
         <v>19</v>
       </c>
       <c r="I518" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J518" s="3" t="s">
         <v>20</v>
@@ -25043,7 +25033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>30</v>
       </c>
@@ -25069,7 +25059,7 @@
         <v>27</v>
       </c>
       <c r="I519" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J519" s="3" t="s">
         <v>20</v>
@@ -25090,7 +25080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>30</v>
       </c>
@@ -25116,7 +25106,7 @@
         <v>46</v>
       </c>
       <c r="I520" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J520" s="3" t="s">
         <v>20</v>
@@ -25137,7 +25127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>30</v>
       </c>
@@ -25157,13 +25147,13 @@
         <v>29</v>
       </c>
       <c r="G521" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H521" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H521" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I521" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J521" s="3" t="s">
         <v>20</v>
@@ -25186,7 +25176,7 @@
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>41</v>
@@ -25210,7 +25200,7 @@
         <v>19</v>
       </c>
       <c r="I522" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J522" s="3" t="s">
         <v>20</v>
@@ -25233,7 +25223,7 @@
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>41</v>
@@ -25257,7 +25247,7 @@
         <v>27</v>
       </c>
       <c r="I523" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J523" s="3" t="s">
         <v>20</v>
@@ -25280,7 +25270,7 @@
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>41</v>
@@ -25304,7 +25294,7 @@
         <v>46</v>
       </c>
       <c r="I524" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J524" s="3" t="s">
         <v>20</v>
@@ -25327,7 +25317,7 @@
     </row>
     <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>41</v>
@@ -25345,13 +25335,13 @@
         <v>16</v>
       </c>
       <c r="G525" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H525" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H525" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I525" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J525" s="3" t="s">
         <v>20</v>
@@ -25374,7 +25364,7 @@
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>41</v>
@@ -25398,7 +25388,7 @@
         <v>19</v>
       </c>
       <c r="I526" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J526" s="3" t="s">
         <v>20</v>
@@ -25421,7 +25411,7 @@
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>41</v>
@@ -25445,7 +25435,7 @@
         <v>27</v>
       </c>
       <c r="I527" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J527" s="3" t="s">
         <v>20</v>
@@ -25468,7 +25458,7 @@
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>41</v>
@@ -25492,7 +25482,7 @@
         <v>46</v>
       </c>
       <c r="I528" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J528" s="3" t="s">
         <v>20</v>
@@ -25515,7 +25505,7 @@
     </row>
     <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>41</v>
@@ -25533,13 +25523,13 @@
         <v>29</v>
       </c>
       <c r="G529" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H529" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H529" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I529" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J529" s="3" t="s">
         <v>20</v>

--- a/BarraPCA/optimize_target.xlsx
+++ b/BarraPCA/optimize_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFF085-1E3C-4FD5-9457-6232D1E871CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286FA19-C2F0-40AD-A741-95E5CC6630ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7935" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="61">
   <si>
     <t>mkt_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,22 @@
     <t>-0.40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -370,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O529" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="常规">
-  <autoFilter ref="A1:O529" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}" name="表1" displayName="表1" ref="A1:O537" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="常规">
+  <autoFilter ref="A1:O537" xr:uid="{1CC0EBF8-895C-4A90-B8C4-BCEE32DB2B69}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3AA5E9AC-0C18-4DAC-866F-47D1A8510787}" name="run" dataDxfId="14" dataCellStyle="常规"/>
     <tableColumn id="6" xr3:uid="{3D346140-5BE9-4DDD-B196-59B9BCFC3CB4}" name="alpha_name" dataDxfId="13" dataCellStyle="常规"/>
@@ -656,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O529"/>
+  <dimension ref="A1:O537"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A514" sqref="A514"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="K524" sqref="K524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25550,6 +25566,382 @@
         <v>25</v>
       </c>
     </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G530" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H530" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I530" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K530" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L530" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M530" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N530" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O530" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G531" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I531" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J531" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K531" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L531" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M531" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N531" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O531" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G532" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H532" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I532" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K532" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L532" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M532" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N532" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O532" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G533" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I533" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J533" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L533" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M533" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N533" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O533" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G534" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H534" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I534" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J534" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K534" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L534" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M534" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N534" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O534" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G535" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I535" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J535" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K535" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L535" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M535" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N535" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O535" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G536" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H536" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I536" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J536" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K536" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L536" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M536" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N536" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O536" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G537" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I537" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J537" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K537" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L537" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M537" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N537" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O537" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BarraPCA/optimize_target.xlsx
+++ b/BarraPCA/optimize_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286FA19-C2F0-40AD-A741-95E5CC6630ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15CB37-06F8-42EE-A507-635BE272D010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:O537"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="K524" sqref="K524"/>
+      <selection activeCell="J523" sqref="J523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
